--- a/src/main/java/com/automation/session/sessionIds.xlsx
+++ b/src/main/java/com/automation/session/sessionIds.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabheemanadhuni/Downloads/hackathon/checkin/auto-noise-cancellation/src/main/java/com/automation/session/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EC1092-D0A8-1E4D-8DCA-1C38B4B4D342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696E1D2D-F313-994A-B050-86A871719FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$11</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -37,30 +40,12 @@
     <t>Thu Jun 05 08:35:00 IST 2025</t>
   </si>
   <si>
-    <t>0y1mJNLDrev5</t>
-  </si>
-  <si>
     <t>Thu Jun 05 12:53:30 IST 2025</t>
   </si>
   <si>
     <t>d1n69deS8ctK</t>
   </si>
   <si>
-    <t>Thu Jun 05 12:55:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 14:41:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Jro3mdHuld2e</t>
-  </si>
-  <si>
-    <t>Fri Jun 06 06:46:00 IST 2025</t>
-  </si>
-  <si>
-    <t>Qsn1REVPRq9P</t>
-  </si>
-  <si>
     <t>Test_Id</t>
   </si>
   <si>
@@ -82,9 +67,6 @@
     <t>TC6</t>
   </si>
   <si>
-    <t>a2n69deS9ctK</t>
-  </si>
-  <si>
     <t>TC7</t>
   </si>
   <si>
@@ -97,28 +79,49 @@
     <t>TC10</t>
   </si>
   <si>
-    <t>Thu Jun 05 08:04:00 IST 2025</t>
-  </si>
-  <si>
-    <t>bycz2HaXnWV5</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 08:06:30 IST 2025</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 08:07:00 IST 2025</t>
-  </si>
-  <si>
-    <t>1bcOhJxVg2Pn</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 08:07:30 IST 2025</t>
-  </si>
-  <si>
-    <t>pKP07NvDThiL</t>
-  </si>
-  <si>
-    <t>3bdOhJxVg4Pn</t>
+    <t>vT0PjoF5NT12</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:32:01 IST 2025</t>
+  </si>
+  <si>
+    <t>Hr1oSDKmeLPz</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:41:58 IST 2025</t>
+  </si>
+  <si>
+    <t>07Gyz20b5wKG</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:20:54 IST 2025</t>
+  </si>
+  <si>
+    <t>aGxsaVMu48N3</t>
+  </si>
+  <si>
+    <t>SrkByalYX3Jx</t>
+  </si>
+  <si>
+    <t>CPLgs0sfTUQY</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:33:30 IST 2025</t>
+  </si>
+  <si>
+    <t>2qGWP4WitQqe</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:57:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:31:00 IST 2025</t>
+  </si>
+  <si>
+    <t>srkCyalYX7Jx</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:21:10 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -148,12 +151,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -183,10 +192,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +536,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD31"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -535,7 +547,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -545,30 +557,30 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -578,80 +590,80 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
